--- a/Proyectos/2015/12/P1379 - CPOS, Juan Guillermo Contreras _MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/12/P1379 - CPOS, Juan Guillermo Contreras _MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>REPORTE DE NO CONFORMIDADES  P1379 - CPOS, Juan Guillermo Contreras _MO</t>
   </si>
@@ -50,22 +50,25 @@
     <t>En proceso</t>
   </si>
   <si>
-    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información</t>
+    <t>Recuerda que si el cliente despues de tres intentos no contesta agregar esa información no realizada</t>
   </si>
   <si>
     <t>Falta efecto en plan de proyecto</t>
   </si>
   <si>
-    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo.</t>
+    <t>En plan de riesgos falta efecto de la causa no conexión por admiadmin impide conectar a maquina cliente por ejemplo. No realizada</t>
+  </si>
+  <si>
+    <t>cambiar nombre a plan_de_proyecto</t>
+  </si>
+  <si>
+    <t>no realizada</t>
   </si>
   <si>
     <t>En equipo de trabajo agregar nombre de empresa</t>
   </si>
   <si>
-    <t>Cerrada</t>
-  </si>
-  <si>
-    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente</t>
+    <t>En la parte equipo de empresa poner SOS Software y en cliente el nombre de cliente no realizada</t>
   </si>
   <si>
     <t>cd </t>
@@ -312,8 +315,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,7 +396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
@@ -414,23 +417,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>42369</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -440,15 +453,15 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
